--- a/biology/Zoologie/Holarchaea/Holarchaea.xlsx
+++ b/biology/Zoologie/Holarchaea/Holarchaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holarchaea est un genre d'araignées aranéomorphes de la famille des Anapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holarchaea est un genre d'araignées aranéomorphes de la famille des Anapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Tasmanie et en Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Tasmanie et en Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent de 0,8 à 1,5 mm et comptent huit yeux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent de 0,8 à 1,5 mm et comptent huit yeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 18.0, 16/05/2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 18.0, 16/05/2017) :
 Holarchaea globosa (Hickman, 1981)
 Holarchaea novaeseelandiae (Forster, 1949)</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit dans les Archaeidae[4], ce genre a été placé dans la famille des Holarchaeidae de 1984 à 2017[2]. Il est placé dans les Anapidae par Dimitrov et al. en 2017[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit dans les Archaeidae, ce genre a été placé dans la famille des Holarchaeidae de 1984 à 2017. Il est placé dans les Anapidae par Dimitrov et al. en 2017.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Forster, 1955 : Spiders of the family Archaeidae from Australia and New Zealand. Transactions and Proceedings of the Royal Society of New Zealand, vol. 83, no 2, p. 391-403 (texte intégral).</t>
         </is>
